--- a/data/RespirationRate/Block1_Day36_plate2_results_Oxygen.xlsx
+++ b/data/RespirationRate/Block1_Day36_plate2_results_Oxygen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PreSens\SDR_v4.0.0\Resource Quality Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/mlfearon_umich_edu/Documents/PROJECTS/MHMP Daphnia Duffy/Resource Quality/Data and Code/resource-quality-expt/data/RespirationRate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4951032-2E18-41DD-9558-AD86C4B4F03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{A4951032-2E18-41DD-9558-AD86C4B4F03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D503CC17-8D3A-405A-AD09-0CC6D85E4388}"/>
   <bookViews>
-    <workbookView xWindow="4133" yWindow="3675" windowWidth="16875" windowHeight="10523" xr2:uid="{282CB12A-B5DF-48ED-8CBD-3292BE1C6BB6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{282CB12A-B5DF-48ED-8CBD-3292BE1C6BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Oxygen Orginal" sheetId="2" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>User Comment :</t>
   </si>
   <si>
-    <t>50:50 Scenedesmus:Microcystis</t>
-  </si>
-  <si>
     <t>Meas. Created By :</t>
   </si>
   <si>
@@ -464,6 +461,9 @@
   </si>
   <si>
     <t>14.12.21 11:48:38</t>
+  </si>
+  <si>
+    <t>100% Scenedesmus</t>
   </si>
 </sst>
 </file>
@@ -818,11 +818,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BAF021-1853-4CA6-B2F4-85234B16373C}">
   <dimension ref="A1:AF85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -836,22 +838,22 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -859,13 +861,13 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -873,174 +875,174 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3">
         <v>54.4</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4">
         <v>46.95</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5">
         <v>23.1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6">
         <v>23.1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7">
         <v>953</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>34</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>35</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>36</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>37</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>38</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>39</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>41</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>42</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>43</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>45</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>46</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>47</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>48</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>49</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>50</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>51</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>52</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>53</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AB13" t="s">
         <v>54</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>55</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>56</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>57</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>58</v>
       </c>
-      <c r="AF13" t="s">
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>60</v>
       </c>
       <c r="B14">
         <v>0.05</v>
@@ -1049,25 +1051,25 @@
         <v>115.8</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14">
         <v>113.97</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I14">
         <v>118.98</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14">
         <v>113.47</v>
@@ -1076,16 +1078,16 @@
         <v>113.97</v>
       </c>
       <c r="M14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N14">
         <v>112.97</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q14">
         <v>112.31</v>
@@ -1094,22 +1096,22 @@
         <v>119.48</v>
       </c>
       <c r="S14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T14">
         <v>114.8</v>
       </c>
       <c r="U14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W14">
         <v>114.13</v>
       </c>
       <c r="X14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y14">
         <v>116.13</v>
@@ -1130,9 +1132,9 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <v>2.0499999999999998</v>
@@ -1141,25 +1143,25 @@
         <v>116.46</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15">
         <v>113.97</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15">
         <v>118.98</v>
       </c>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15">
         <v>112.97</v>
@@ -1168,16 +1170,16 @@
         <v>113.97</v>
       </c>
       <c r="M15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N15">
         <v>113.3</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q15">
         <v>112.64</v>
@@ -1186,22 +1188,22 @@
         <v>119.99</v>
       </c>
       <c r="S15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T15">
         <v>115.13</v>
       </c>
       <c r="U15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W15">
         <v>114.46</v>
       </c>
       <c r="X15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y15">
         <v>116.3</v>
@@ -1222,9 +1224,9 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>4.07</v>
@@ -1233,25 +1235,25 @@
         <v>116.96</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16">
         <v>114.13</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16">
         <v>119.48</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K16">
         <v>113.47</v>
@@ -1260,16 +1262,16 @@
         <v>114.13</v>
       </c>
       <c r="M16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N16">
         <v>113.47</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q16">
         <v>112.47</v>
@@ -1278,22 +1280,22 @@
         <v>120.16</v>
       </c>
       <c r="S16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T16">
         <v>115.46</v>
       </c>
       <c r="U16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W16">
         <v>114.46</v>
       </c>
       <c r="X16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y16">
         <v>116.46</v>
@@ -1314,9 +1316,9 @@
         <v>21.79</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>6.08</v>
@@ -1325,25 +1327,25 @@
         <v>116.63</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17">
         <v>113.97</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17">
         <v>119.48</v>
       </c>
       <c r="J17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K17">
         <v>113.8</v>
@@ -1352,16 +1354,16 @@
         <v>114.46</v>
       </c>
       <c r="M17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N17">
         <v>113.8</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q17">
         <v>112.81</v>
@@ -1370,22 +1372,22 @@
         <v>120.16</v>
       </c>
       <c r="S17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T17">
         <v>115.13</v>
       </c>
       <c r="U17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W17">
         <v>114.8</v>
       </c>
       <c r="X17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y17">
         <v>116.3</v>
@@ -1406,9 +1408,9 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18">
         <v>8.1</v>
@@ -1417,25 +1419,25 @@
         <v>116.8</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <v>113.3</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18">
         <v>119.48</v>
       </c>
       <c r="J18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K18">
         <v>113.97</v>
@@ -1444,16 +1446,16 @@
         <v>114.46</v>
       </c>
       <c r="M18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N18">
         <v>113.3</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q18">
         <v>112.81</v>
@@ -1462,22 +1464,22 @@
         <v>119.99</v>
       </c>
       <c r="S18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T18">
         <v>115.3</v>
       </c>
       <c r="U18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W18">
         <v>114.3</v>
       </c>
       <c r="X18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y18">
         <v>115.96</v>
@@ -1498,9 +1500,9 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19">
         <v>10.1</v>
@@ -1509,25 +1511,25 @@
         <v>116.63</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19">
         <v>113.63</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19">
         <v>119.82</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K19">
         <v>113.8</v>
@@ -1536,16 +1538,16 @@
         <v>114.46</v>
       </c>
       <c r="M19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N19">
         <v>114.13</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q19">
         <v>112.81</v>
@@ -1554,22 +1556,22 @@
         <v>120.33</v>
       </c>
       <c r="S19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T19">
         <v>115.13</v>
       </c>
       <c r="U19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W19">
         <v>114.46</v>
       </c>
       <c r="X19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y19">
         <v>115.96</v>
@@ -1590,9 +1592,9 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20">
         <v>12.13</v>
@@ -1601,25 +1603,25 @@
         <v>116.8</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20">
         <v>113.3</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20">
         <v>119.99</v>
       </c>
       <c r="J20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K20">
         <v>114.46</v>
@@ -1628,16 +1630,16 @@
         <v>114.8</v>
       </c>
       <c r="M20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N20">
         <v>113.63</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q20">
         <v>112.97</v>
@@ -1646,22 +1648,22 @@
         <v>120.5</v>
       </c>
       <c r="S20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T20">
         <v>115.63</v>
       </c>
       <c r="U20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W20">
         <v>114.63</v>
       </c>
       <c r="X20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y20">
         <v>116.13</v>
@@ -1682,9 +1684,9 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21">
         <v>14.13</v>
@@ -1693,25 +1695,25 @@
         <v>116.46</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <v>113.47</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21">
         <v>120.16</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21">
         <v>114.46</v>
@@ -1720,16 +1722,16 @@
         <v>114.96</v>
       </c>
       <c r="M21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N21">
         <v>113.97</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21">
         <v>112.97</v>
@@ -1738,22 +1740,22 @@
         <v>120.66</v>
       </c>
       <c r="S21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T21">
         <v>115.3</v>
       </c>
       <c r="U21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W21">
         <v>114.3</v>
       </c>
       <c r="X21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y21">
         <v>116.46</v>
@@ -1774,9 +1776,9 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22">
         <v>16.170000000000002</v>
@@ -1785,25 +1787,25 @@
         <v>116.46</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22">
         <v>113.3</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I22">
         <v>119.82</v>
       </c>
       <c r="J22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22">
         <v>114.63</v>
@@ -1812,16 +1814,16 @@
         <v>114.8</v>
       </c>
       <c r="M22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N22">
         <v>114.13</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q22">
         <v>112.64</v>
@@ -1830,22 +1832,22 @@
         <v>120.16</v>
       </c>
       <c r="S22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T22">
         <v>115.46</v>
       </c>
       <c r="U22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W22">
         <v>114.3</v>
       </c>
       <c r="X22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y22">
         <v>116.3</v>
@@ -1866,9 +1868,9 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23">
         <v>18.18</v>
@@ -1877,25 +1879,25 @@
         <v>116.96</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23">
         <v>113.47</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I23">
         <v>119.82</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K23">
         <v>114.3</v>
@@ -1904,16 +1906,16 @@
         <v>114.63</v>
       </c>
       <c r="M23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N23">
         <v>114.3</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q23">
         <v>112.97</v>
@@ -1922,22 +1924,22 @@
         <v>120.5</v>
       </c>
       <c r="S23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T23">
         <v>115.63</v>
       </c>
       <c r="U23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W23">
         <v>114.3</v>
       </c>
       <c r="X23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y23">
         <v>115.96</v>
@@ -1958,9 +1960,9 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24">
         <v>20.18</v>
@@ -1969,25 +1971,25 @@
         <v>116.8</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24">
         <v>113.63</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I24">
         <v>120.33</v>
       </c>
       <c r="J24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K24">
         <v>114.3</v>
@@ -1996,16 +1998,16 @@
         <v>114.96</v>
       </c>
       <c r="M24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N24">
         <v>114.13</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q24">
         <v>112.64</v>
@@ -2014,22 +2016,22 @@
         <v>120.5</v>
       </c>
       <c r="S24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T24">
         <v>115.63</v>
       </c>
       <c r="U24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W24">
         <v>114.3</v>
       </c>
       <c r="X24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y24">
         <v>115.13</v>
@@ -2050,9 +2052,9 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25">
         <v>22.18</v>
@@ -2061,25 +2063,25 @@
         <v>116.96</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25">
         <v>113.63</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I25">
         <v>119.99</v>
       </c>
       <c r="J25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K25">
         <v>114.63</v>
@@ -2088,16 +2090,16 @@
         <v>114.46</v>
       </c>
       <c r="M25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N25">
         <v>114.13</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q25">
         <v>112.64</v>
@@ -2106,22 +2108,22 @@
         <v>120.33</v>
       </c>
       <c r="S25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T25">
         <v>115.13</v>
       </c>
       <c r="U25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W25">
         <v>113.8</v>
       </c>
       <c r="X25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y25">
         <v>115.8</v>
@@ -2142,9 +2144,9 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26">
         <v>24.2</v>
@@ -2153,25 +2155,25 @@
         <v>117.13</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26">
         <v>113.47</v>
       </c>
       <c r="G26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I26">
         <v>120.16</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K26">
         <v>114.63</v>
@@ -2180,16 +2182,16 @@
         <v>114.63</v>
       </c>
       <c r="M26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N26">
         <v>114.13</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q26">
         <v>112.47</v>
@@ -2198,22 +2200,22 @@
         <v>120.33</v>
       </c>
       <c r="S26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T26">
         <v>115.3</v>
       </c>
       <c r="U26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W26">
         <v>113.3</v>
       </c>
       <c r="X26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y26">
         <v>116.13</v>
@@ -2234,9 +2236,9 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27">
         <v>26.2</v>
@@ -2245,25 +2247,25 @@
         <v>116.8</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27">
         <v>113.97</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I27">
         <v>120.33</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27">
         <v>114.96</v>
@@ -2272,16 +2274,16 @@
         <v>115.13</v>
       </c>
       <c r="M27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N27">
         <v>114.13</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27">
         <v>112.81</v>
@@ -2290,22 +2292,22 @@
         <v>120.5</v>
       </c>
       <c r="S27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T27">
         <v>115.3</v>
       </c>
       <c r="U27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W27">
         <v>113.63</v>
       </c>
       <c r="X27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y27">
         <v>116.3</v>
@@ -2326,9 +2328,9 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28">
         <v>28.2</v>
@@ -2337,25 +2339,25 @@
         <v>116.63</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28">
         <v>113.63</v>
       </c>
       <c r="G28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I28">
         <v>120.33</v>
       </c>
       <c r="J28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K28">
         <v>114.3</v>
@@ -2364,16 +2366,16 @@
         <v>114.8</v>
       </c>
       <c r="M28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N28">
         <v>114.3</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q28">
         <v>112.64</v>
@@ -2382,22 +2384,22 @@
         <v>120.5</v>
       </c>
       <c r="S28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T28">
         <v>115.13</v>
       </c>
       <c r="U28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W28">
         <v>113.97</v>
       </c>
       <c r="X28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y28">
         <v>116.3</v>
@@ -2418,9 +2420,9 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29">
         <v>30.22</v>
@@ -2429,25 +2431,25 @@
         <v>116.63</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F29">
         <v>113.63</v>
       </c>
       <c r="G29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I29">
         <v>120.16</v>
       </c>
       <c r="J29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K29">
         <v>114.46</v>
@@ -2456,16 +2458,16 @@
         <v>114.96</v>
       </c>
       <c r="M29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N29">
         <v>114.3</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q29">
         <v>112.14</v>
@@ -2474,22 +2476,22 @@
         <v>119.99</v>
       </c>
       <c r="S29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T29">
         <v>115.3</v>
       </c>
       <c r="U29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W29">
         <v>113.8</v>
       </c>
       <c r="X29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y29">
         <v>115.46</v>
@@ -2510,9 +2512,9 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30">
         <v>32.22</v>
@@ -2521,25 +2523,25 @@
         <v>116.63</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30">
         <v>112.97</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I30">
         <v>120.33</v>
       </c>
       <c r="J30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K30">
         <v>114.96</v>
@@ -2548,16 +2550,16 @@
         <v>115.46</v>
       </c>
       <c r="M30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N30">
         <v>114.8</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q30">
         <v>112.47</v>
@@ -2566,22 +2568,22 @@
         <v>120.33</v>
       </c>
       <c r="S30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T30">
         <v>115.13</v>
       </c>
       <c r="U30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W30">
         <v>113.3</v>
       </c>
       <c r="X30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y30">
         <v>115.46</v>
@@ -2602,9 +2604,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31">
         <v>34.22</v>
@@ -2613,25 +2615,25 @@
         <v>116.8</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F31">
         <v>113.14</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31">
         <v>120.33</v>
       </c>
       <c r="J31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K31">
         <v>114.8</v>
@@ -2640,16 +2642,16 @@
         <v>114.8</v>
       </c>
       <c r="M31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N31">
         <v>114.46</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q31">
         <v>112.14</v>
@@ -2658,22 +2660,22 @@
         <v>119.99</v>
       </c>
       <c r="S31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T31">
         <v>115.13</v>
       </c>
       <c r="U31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W31">
         <v>112.97</v>
       </c>
       <c r="X31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y31">
         <v>115.46</v>
@@ -2694,9 +2696,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32">
         <v>36.22</v>
@@ -2705,25 +2707,25 @@
         <v>116.63</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32">
         <v>112.81</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I32">
         <v>120.16</v>
       </c>
       <c r="J32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K32">
         <v>114.8</v>
@@ -2732,16 +2734,16 @@
         <v>114.13</v>
       </c>
       <c r="M32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N32">
         <v>114.3</v>
       </c>
       <c r="O32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q32">
         <v>112.14</v>
@@ -2750,22 +2752,22 @@
         <v>119.99</v>
       </c>
       <c r="S32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T32">
         <v>115.13</v>
       </c>
       <c r="U32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W32">
         <v>112.97</v>
       </c>
       <c r="X32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y32">
         <v>115.63</v>
@@ -2786,9 +2788,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33">
         <v>38.22</v>
@@ -2797,25 +2799,25 @@
         <v>116.63</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33">
         <v>112.14</v>
       </c>
       <c r="G33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I33">
         <v>120.33</v>
       </c>
       <c r="J33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33">
         <v>114.46</v>
@@ -2824,16 +2826,16 @@
         <v>114.63</v>
       </c>
       <c r="M33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N33">
         <v>114.3</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q33">
         <v>112.14</v>
@@ -2842,22 +2844,22 @@
         <v>119.65</v>
       </c>
       <c r="S33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T33">
         <v>114.96</v>
       </c>
       <c r="U33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W33">
         <v>112.97</v>
       </c>
       <c r="X33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y33">
         <v>115.46</v>
@@ -2878,9 +2880,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34">
         <v>40.229999999999997</v>
@@ -2889,25 +2891,25 @@
         <v>116.63</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F34">
         <v>112.47</v>
       </c>
       <c r="G34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I34">
         <v>120.16</v>
       </c>
       <c r="J34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K34">
         <v>114.46</v>
@@ -2916,16 +2918,16 @@
         <v>114.63</v>
       </c>
       <c r="M34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N34">
         <v>114.3</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q34">
         <v>111.98</v>
@@ -2934,22 +2936,22 @@
         <v>119.82</v>
       </c>
       <c r="S34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T34">
         <v>115.3</v>
       </c>
       <c r="U34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W34">
         <v>112.81</v>
       </c>
       <c r="X34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y34">
         <v>114.3</v>
@@ -2970,9 +2972,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35">
         <v>42.23</v>
@@ -2981,25 +2983,25 @@
         <v>116.46</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35">
         <v>112.47</v>
       </c>
       <c r="G35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I35">
         <v>120.16</v>
       </c>
       <c r="J35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K35">
         <v>114.8</v>
@@ -3008,16 +3010,16 @@
         <v>114.8</v>
       </c>
       <c r="M35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N35">
         <v>113.97</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q35">
         <v>111.81</v>
@@ -3026,22 +3028,22 @@
         <v>119.82</v>
       </c>
       <c r="S35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T35">
         <v>115.13</v>
       </c>
       <c r="U35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W35">
         <v>112.97</v>
       </c>
       <c r="X35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y35">
         <v>113.63</v>
@@ -3062,9 +3064,9 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36">
         <v>44.23</v>
@@ -3073,25 +3075,25 @@
         <v>116.46</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F36">
         <v>112.14</v>
       </c>
       <c r="G36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I36">
         <v>120.16</v>
       </c>
       <c r="J36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K36">
         <v>114.3</v>
@@ -3100,16 +3102,16 @@
         <v>114.96</v>
       </c>
       <c r="M36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N36">
         <v>113.8</v>
       </c>
       <c r="O36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q36">
         <v>111.65</v>
@@ -3118,22 +3120,22 @@
         <v>119.48</v>
       </c>
       <c r="S36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T36">
         <v>114.96</v>
       </c>
       <c r="U36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W36">
         <v>112.47</v>
       </c>
       <c r="X36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y36">
         <v>114.63</v>
@@ -3154,9 +3156,9 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37">
         <v>46.23</v>
@@ -3165,25 +3167,25 @@
         <v>116.3</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F37">
         <v>111.98</v>
       </c>
       <c r="G37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I37">
         <v>120.33</v>
       </c>
       <c r="J37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K37">
         <v>114.46</v>
@@ -3192,16 +3194,16 @@
         <v>114.46</v>
       </c>
       <c r="M37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N37">
         <v>114.13</v>
       </c>
       <c r="O37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q37">
         <v>111.48</v>
@@ -3210,22 +3212,22 @@
         <v>119.48</v>
       </c>
       <c r="S37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T37">
         <v>115.13</v>
       </c>
       <c r="U37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W37">
         <v>112.31</v>
       </c>
       <c r="X37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y37">
         <v>114.96</v>
@@ -3246,9 +3248,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38">
         <v>48.25</v>
@@ -3257,25 +3259,25 @@
         <v>116.13</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F38">
         <v>111.81</v>
       </c>
       <c r="G38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I38">
         <v>119.99</v>
       </c>
       <c r="J38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K38">
         <v>114.46</v>
@@ -3284,16 +3286,16 @@
         <v>114.46</v>
       </c>
       <c r="M38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N38">
         <v>113.63</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q38">
         <v>111.16</v>
@@ -3302,22 +3304,22 @@
         <v>119.31</v>
       </c>
       <c r="S38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T38">
         <v>114.8</v>
       </c>
       <c r="U38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W38">
         <v>112.31</v>
       </c>
       <c r="X38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y38">
         <v>114.63</v>
@@ -3338,9 +3340,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39">
         <v>50.25</v>
@@ -3349,25 +3351,25 @@
         <v>116.13</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F39">
         <v>111.81</v>
       </c>
       <c r="G39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I39">
         <v>119.82</v>
       </c>
       <c r="J39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K39">
         <v>114.3</v>
@@ -3376,16 +3378,16 @@
         <v>113.97</v>
       </c>
       <c r="M39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N39">
         <v>113.8</v>
       </c>
       <c r="O39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q39">
         <v>111.16</v>
@@ -3394,22 +3396,22 @@
         <v>119.65</v>
       </c>
       <c r="S39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T39">
         <v>114.96</v>
       </c>
       <c r="U39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W39">
         <v>111.98</v>
       </c>
       <c r="X39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y39">
         <v>114.46</v>
@@ -3430,9 +3432,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40">
         <v>52.25</v>
@@ -3441,25 +3443,25 @@
         <v>116.3</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F40">
         <v>111.48</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I40">
         <v>120.16</v>
       </c>
       <c r="J40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K40">
         <v>114.3</v>
@@ -3468,16 +3470,16 @@
         <v>114.3</v>
       </c>
       <c r="M40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N40">
         <v>113.8</v>
       </c>
       <c r="O40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q40">
         <v>111.16</v>
@@ -3486,22 +3488,22 @@
         <v>118.98</v>
       </c>
       <c r="S40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T40">
         <v>114.8</v>
       </c>
       <c r="U40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W40">
         <v>111.65</v>
       </c>
       <c r="X40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y40">
         <v>114.63</v>
@@ -3522,9 +3524,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41">
         <v>54.25</v>
@@ -3533,25 +3535,25 @@
         <v>116.3</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F41">
         <v>111.48</v>
       </c>
       <c r="G41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I41">
         <v>119.99</v>
       </c>
       <c r="J41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K41">
         <v>114.46</v>
@@ -3560,16 +3562,16 @@
         <v>114.13</v>
       </c>
       <c r="M41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N41">
         <v>113.97</v>
       </c>
       <c r="O41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q41">
         <v>111.32</v>
@@ -3578,22 +3580,22 @@
         <v>119.15</v>
       </c>
       <c r="S41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T41">
         <v>114.96</v>
       </c>
       <c r="U41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W41">
         <v>111.65</v>
       </c>
       <c r="X41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y41">
         <v>114.46</v>
@@ -3614,9 +3616,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42">
         <v>56.27</v>
@@ -3625,25 +3627,25 @@
         <v>116.46</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F42">
         <v>111.81</v>
       </c>
       <c r="G42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I42">
         <v>119.99</v>
       </c>
       <c r="J42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K42">
         <v>114.46</v>
@@ -3652,16 +3654,16 @@
         <v>114.13</v>
       </c>
       <c r="M42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N42">
         <v>113.47</v>
       </c>
       <c r="O42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q42">
         <v>111.16</v>
@@ -3670,22 +3672,22 @@
         <v>119.15</v>
       </c>
       <c r="S42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T42">
         <v>114.46</v>
       </c>
       <c r="U42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W42">
         <v>111.81</v>
       </c>
       <c r="X42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y42">
         <v>114.3</v>
@@ -3706,9 +3708,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43">
         <v>58.27</v>
@@ -3717,25 +3719,25 @@
         <v>115.96</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F43">
         <v>110.99</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I43">
         <v>120.16</v>
       </c>
       <c r="J43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K43">
         <v>114.13</v>
@@ -3744,16 +3746,16 @@
         <v>113.8</v>
       </c>
       <c r="M43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N43">
         <v>113.47</v>
       </c>
       <c r="O43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q43">
         <v>110.83</v>
@@ -3762,22 +3764,22 @@
         <v>118.98</v>
       </c>
       <c r="S43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T43">
         <v>114.63</v>
       </c>
       <c r="U43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W43">
         <v>111.98</v>
       </c>
       <c r="X43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y43">
         <v>114.13</v>
@@ -3798,9 +3800,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44">
         <v>60.27</v>
@@ -3809,25 +3811,25 @@
         <v>115.8</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F44">
         <v>111.16</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I44">
         <v>119.82</v>
       </c>
       <c r="J44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K44">
         <v>114.3</v>
@@ -3836,16 +3838,16 @@
         <v>113.47</v>
       </c>
       <c r="M44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N44">
         <v>113.3</v>
       </c>
       <c r="O44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q44">
         <v>110.99</v>
@@ -3854,22 +3856,22 @@
         <v>119.31</v>
       </c>
       <c r="S44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T44">
         <v>114.8</v>
       </c>
       <c r="U44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W44">
         <v>111.32</v>
       </c>
       <c r="X44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y44">
         <v>113.63</v>
@@ -3890,9 +3892,9 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45">
         <v>62.27</v>
@@ -3901,25 +3903,25 @@
         <v>115.96</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F45">
         <v>110.99</v>
       </c>
       <c r="G45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I45">
         <v>119.65</v>
       </c>
       <c r="J45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K45">
         <v>114.13</v>
@@ -3928,16 +3930,16 @@
         <v>113.63</v>
       </c>
       <c r="M45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N45">
         <v>113.3</v>
       </c>
       <c r="O45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q45">
         <v>110.99</v>
@@ -3946,22 +3948,22 @@
         <v>118.81</v>
       </c>
       <c r="S45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T45">
         <v>114.96</v>
       </c>
       <c r="U45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W45">
         <v>111.32</v>
       </c>
       <c r="X45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y45">
         <v>113.47</v>
@@ -3982,9 +3984,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46">
         <v>64.27</v>
@@ -3993,25 +3995,25 @@
         <v>116.3</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F46">
         <v>111.16</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I46">
         <v>119.65</v>
       </c>
       <c r="J46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K46">
         <v>114.13</v>
@@ -4020,16 +4022,16 @@
         <v>113.3</v>
       </c>
       <c r="M46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N46">
         <v>113.3</v>
       </c>
       <c r="O46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q46">
         <v>110.99</v>
@@ -4038,22 +4040,22 @@
         <v>118.64</v>
       </c>
       <c r="S46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T46">
         <v>114.63</v>
       </c>
       <c r="U46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W46">
         <v>111.32</v>
       </c>
       <c r="X46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y46">
         <v>113.14</v>
@@ -4074,9 +4076,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47">
         <v>66.28</v>
@@ -4085,25 +4087,25 @@
         <v>115.8</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F47">
         <v>110.83</v>
       </c>
       <c r="G47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I47">
         <v>119.65</v>
       </c>
       <c r="J47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K47">
         <v>113.97</v>
@@ -4112,16 +4114,16 @@
         <v>113.3</v>
       </c>
       <c r="M47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N47">
         <v>113.47</v>
       </c>
       <c r="O47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q47">
         <v>110.66</v>
@@ -4130,22 +4132,22 @@
         <v>118.47</v>
       </c>
       <c r="S47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T47">
         <v>114.63</v>
       </c>
       <c r="U47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W47">
         <v>111.16</v>
       </c>
       <c r="X47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y47">
         <v>112.97</v>
@@ -4166,9 +4168,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48">
         <v>68.28</v>
@@ -4177,25 +4179,25 @@
         <v>116.13</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F48">
         <v>110.5</v>
       </c>
       <c r="G48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I48">
         <v>119.65</v>
       </c>
       <c r="J48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K48">
         <v>113.8</v>
@@ -4204,16 +4206,16 @@
         <v>113.14</v>
       </c>
       <c r="M48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N48">
         <v>113.3</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q48">
         <v>110.5</v>
@@ -4222,22 +4224,22 @@
         <v>118.14</v>
       </c>
       <c r="S48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T48">
         <v>114.46</v>
       </c>
       <c r="U48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W48">
         <v>110.99</v>
       </c>
       <c r="X48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y48">
         <v>113.14</v>
@@ -4258,9 +4260,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49">
         <v>70.28</v>
@@ -4269,25 +4271,25 @@
         <v>116.13</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F49">
         <v>110.5</v>
       </c>
       <c r="G49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I49">
         <v>119.82</v>
       </c>
       <c r="J49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K49">
         <v>113.97</v>
@@ -4296,16 +4298,16 @@
         <v>113.3</v>
       </c>
       <c r="M49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N49">
         <v>113.47</v>
       </c>
       <c r="O49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q49">
         <v>110.5</v>
@@ -4314,22 +4316,22 @@
         <v>118.64</v>
       </c>
       <c r="S49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T49">
         <v>114.3</v>
       </c>
       <c r="U49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W49">
         <v>110.83</v>
       </c>
       <c r="X49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y49">
         <v>112.81</v>
@@ -4350,9 +4352,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50">
         <v>72.28</v>
@@ -4361,25 +4363,25 @@
         <v>115.96</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50">
         <v>110.17</v>
       </c>
       <c r="G50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I50">
         <v>119.65</v>
       </c>
       <c r="J50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K50">
         <v>114.13</v>
@@ -4388,16 +4390,16 @@
         <v>113.3</v>
       </c>
       <c r="M50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N50">
         <v>113.47</v>
       </c>
       <c r="O50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q50">
         <v>110.17</v>
@@ -4406,22 +4408,22 @@
         <v>118.31</v>
       </c>
       <c r="S50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T50">
         <v>114.13</v>
       </c>
       <c r="U50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W50">
         <v>110.99</v>
       </c>
       <c r="X50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y50">
         <v>112.97</v>
@@ -4442,9 +4444,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B51">
         <v>74.3</v>
@@ -4453,25 +4455,25 @@
         <v>115.8</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F51">
         <v>110.17</v>
       </c>
       <c r="G51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I51">
         <v>119.48</v>
       </c>
       <c r="J51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K51">
         <v>114.13</v>
@@ -4480,16 +4482,16 @@
         <v>112.81</v>
       </c>
       <c r="M51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N51">
         <v>113.3</v>
       </c>
       <c r="O51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q51">
         <v>110.17</v>
@@ -4498,22 +4500,22 @@
         <v>118.14</v>
       </c>
       <c r="S51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T51">
         <v>114.13</v>
       </c>
       <c r="U51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W51">
         <v>110.66</v>
       </c>
       <c r="X51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y51">
         <v>113.3</v>
@@ -4534,9 +4536,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B52">
         <v>76.3</v>
@@ -4545,25 +4547,25 @@
         <v>115.8</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F52">
         <v>109.84</v>
       </c>
       <c r="G52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I52">
         <v>119.82</v>
       </c>
       <c r="J52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K52">
         <v>113.97</v>
@@ -4572,16 +4574,16 @@
         <v>112.81</v>
       </c>
       <c r="M52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N52">
         <v>113.14</v>
       </c>
       <c r="O52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q52">
         <v>110.33</v>
@@ -4590,22 +4592,22 @@
         <v>117.63</v>
       </c>
       <c r="S52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T52">
         <v>114.13</v>
       </c>
       <c r="U52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W52">
         <v>111.16</v>
       </c>
       <c r="X52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y52">
         <v>113.14</v>
@@ -4626,9 +4628,9 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53">
         <v>78.3</v>
@@ -4637,25 +4639,25 @@
         <v>115.3</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F53">
         <v>109.84</v>
       </c>
       <c r="G53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I53">
         <v>119.65</v>
       </c>
       <c r="J53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K53">
         <v>113.63</v>
@@ -4664,16 +4666,16 @@
         <v>112.64</v>
       </c>
       <c r="M53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N53">
         <v>112.97</v>
       </c>
       <c r="O53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q53">
         <v>109.68</v>
@@ -4682,22 +4684,22 @@
         <v>117.8</v>
       </c>
       <c r="S53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T53">
         <v>113.97</v>
       </c>
       <c r="U53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W53">
         <v>110.66</v>
       </c>
       <c r="X53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y53">
         <v>111.98</v>
@@ -4718,9 +4720,9 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54">
         <v>80.3</v>
@@ -4729,25 +4731,25 @@
         <v>115.63</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F54">
         <v>109.35</v>
       </c>
       <c r="G54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I54">
         <v>119.65</v>
       </c>
       <c r="J54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K54">
         <v>113.63</v>
@@ -4756,16 +4758,16 @@
         <v>112.64</v>
       </c>
       <c r="M54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N54">
         <v>113.14</v>
       </c>
       <c r="O54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q54">
         <v>109.84</v>
@@ -4774,22 +4776,22 @@
         <v>117.8</v>
       </c>
       <c r="S54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T54">
         <v>113.97</v>
       </c>
       <c r="U54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W54">
         <v>110.66</v>
       </c>
       <c r="X54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y54">
         <v>111.81</v>
@@ -4810,9 +4812,9 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55">
         <v>82.32</v>
@@ -4821,25 +4823,25 @@
         <v>115.3</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F55">
         <v>109.68</v>
       </c>
       <c r="G55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I55">
         <v>119.65</v>
       </c>
       <c r="J55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K55">
         <v>113.63</v>
@@ -4848,16 +4850,16 @@
         <v>112.47</v>
       </c>
       <c r="M55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N55">
         <v>113.14</v>
       </c>
       <c r="O55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q55">
         <v>109.84</v>
@@ -4866,22 +4868,22 @@
         <v>117.8</v>
       </c>
       <c r="S55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T55">
         <v>113.8</v>
       </c>
       <c r="U55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W55">
         <v>110.83</v>
       </c>
       <c r="X55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y55">
         <v>112.31</v>
@@ -4902,9 +4904,9 @@
         <v>21.83</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B56">
         <v>84.32</v>
@@ -4913,25 +4915,25 @@
         <v>115.46</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F56">
         <v>110</v>
       </c>
       <c r="G56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I56">
         <v>119.48</v>
       </c>
       <c r="J56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K56">
         <v>113.8</v>
@@ -4940,16 +4942,16 @@
         <v>112.47</v>
       </c>
       <c r="M56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N56">
         <v>113.14</v>
       </c>
       <c r="O56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q56">
         <v>109.84</v>
@@ -4958,22 +4960,22 @@
         <v>117.63</v>
       </c>
       <c r="S56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T56">
         <v>113.8</v>
       </c>
       <c r="U56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W56">
         <v>110.66</v>
       </c>
       <c r="X56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y56">
         <v>112.14</v>
@@ -4994,9 +4996,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57">
         <v>86.32</v>
@@ -5005,25 +5007,25 @@
         <v>115.46</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F57">
         <v>109.68</v>
       </c>
       <c r="G57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I57">
         <v>119.31</v>
       </c>
       <c r="J57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K57">
         <v>113.63</v>
@@ -5032,16 +5034,16 @@
         <v>112.14</v>
       </c>
       <c r="M57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N57">
         <v>112.81</v>
       </c>
       <c r="O57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q57">
         <v>109.35</v>
@@ -5050,22 +5052,22 @@
         <v>117.63</v>
       </c>
       <c r="S57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T57">
         <v>113.63</v>
       </c>
       <c r="U57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W57">
         <v>110.33</v>
       </c>
       <c r="X57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y57">
         <v>111.48</v>
@@ -5086,9 +5088,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B58">
         <v>88.32</v>
@@ -5097,25 +5099,25 @@
         <v>115.46</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F58">
         <v>109.51</v>
       </c>
       <c r="G58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I58">
         <v>119.15</v>
       </c>
       <c r="J58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K58">
         <v>113.47</v>
@@ -5124,16 +5126,16 @@
         <v>111.81</v>
       </c>
       <c r="M58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N58">
         <v>112.81</v>
       </c>
       <c r="O58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q58">
         <v>109.68</v>
@@ -5142,22 +5144,22 @@
         <v>117.47</v>
       </c>
       <c r="S58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T58">
         <v>113.47</v>
       </c>
       <c r="U58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W58">
         <v>110.17</v>
       </c>
       <c r="X58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y58">
         <v>111.48</v>
@@ -5178,9 +5180,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B59">
         <v>90.32</v>
@@ -5189,25 +5191,25 @@
         <v>114.96</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F59">
         <v>109.35</v>
       </c>
       <c r="G59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I59">
         <v>119.31</v>
       </c>
       <c r="J59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K59">
         <v>113.3</v>
@@ -5216,16 +5218,16 @@
         <v>111.81</v>
       </c>
       <c r="M59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N59">
         <v>112.64</v>
       </c>
       <c r="O59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q59">
         <v>109.35</v>
@@ -5234,22 +5236,22 @@
         <v>117.63</v>
       </c>
       <c r="S59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T59">
         <v>113.47</v>
       </c>
       <c r="U59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W59">
         <v>110.33</v>
       </c>
       <c r="X59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y59">
         <v>110.99</v>
@@ -5270,9 +5272,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B60">
         <v>92.33</v>
@@ -5281,25 +5283,25 @@
         <v>114.96</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F60">
         <v>109.51</v>
       </c>
       <c r="G60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I60">
         <v>119.82</v>
       </c>
       <c r="J60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K60">
         <v>113.3</v>
@@ -5308,16 +5310,16 @@
         <v>111.98</v>
       </c>
       <c r="M60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N60">
         <v>112.97</v>
       </c>
       <c r="O60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q60">
         <v>109.35</v>
@@ -5326,22 +5328,22 @@
         <v>117.47</v>
       </c>
       <c r="S60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T60">
         <v>113.63</v>
       </c>
       <c r="U60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W60">
         <v>110</v>
       </c>
       <c r="X60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y60">
         <v>110.99</v>
@@ -5362,9 +5364,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B61">
         <v>94.33</v>
@@ -5373,25 +5375,25 @@
         <v>114.96</v>
       </c>
       <c r="D61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F61">
         <v>109.35</v>
       </c>
       <c r="G61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I61">
         <v>119.31</v>
       </c>
       <c r="J61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K61">
         <v>113.63</v>
@@ -5400,16 +5402,16 @@
         <v>112.31</v>
       </c>
       <c r="M61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N61">
         <v>112.64</v>
       </c>
       <c r="O61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q61">
         <v>108.86</v>
@@ -5418,22 +5420,22 @@
         <v>117.3</v>
       </c>
       <c r="S61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T61">
         <v>113.63</v>
       </c>
       <c r="U61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W61">
         <v>109.68</v>
       </c>
       <c r="X61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y61">
         <v>110.83</v>
@@ -5454,9 +5456,9 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B62">
         <v>96.33</v>
@@ -5465,25 +5467,25 @@
         <v>114.96</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F62">
         <v>109.02</v>
       </c>
       <c r="G62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I62">
         <v>119.31</v>
       </c>
       <c r="J62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K62">
         <v>113.3</v>
@@ -5492,16 +5494,16 @@
         <v>112.47</v>
       </c>
       <c r="M62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N62">
         <v>112.47</v>
       </c>
       <c r="O62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q62">
         <v>109.35</v>
@@ -5510,22 +5512,22 @@
         <v>116.96</v>
       </c>
       <c r="S62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T62">
         <v>113.3</v>
       </c>
       <c r="U62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W62">
         <v>109.51</v>
       </c>
       <c r="X62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y62">
         <v>110.99</v>
@@ -5546,9 +5548,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B63">
         <v>98.33</v>
@@ -5557,25 +5559,25 @@
         <v>114.3</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F63">
         <v>108.86</v>
       </c>
       <c r="G63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I63">
         <v>119.31</v>
       </c>
       <c r="J63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K63">
         <v>113.3</v>
@@ -5584,16 +5586,16 @@
         <v>112.31</v>
       </c>
       <c r="M63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N63">
         <v>112.31</v>
       </c>
       <c r="O63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q63">
         <v>109.19</v>
@@ -5602,22 +5604,22 @@
         <v>116.96</v>
       </c>
       <c r="S63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T63">
         <v>113.14</v>
       </c>
       <c r="U63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W63">
         <v>109.68</v>
       </c>
       <c r="X63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y63">
         <v>110.83</v>
@@ -5638,9 +5640,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B64">
         <v>100.35</v>
@@ -5649,25 +5651,25 @@
         <v>114.46</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F64">
         <v>108.86</v>
       </c>
       <c r="G64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I64">
         <v>119.31</v>
       </c>
       <c r="J64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K64">
         <v>113.3</v>
@@ -5676,16 +5678,16 @@
         <v>111.98</v>
       </c>
       <c r="M64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N64">
         <v>112.14</v>
       </c>
       <c r="O64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q64">
         <v>109.02</v>
@@ -5694,22 +5696,22 @@
         <v>116.63</v>
       </c>
       <c r="S64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T64">
         <v>113.3</v>
       </c>
       <c r="U64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W64">
         <v>109.68</v>
       </c>
       <c r="X64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y64">
         <v>111.16</v>
@@ -5730,9 +5732,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B65">
         <v>102.35</v>
@@ -5741,25 +5743,25 @@
         <v>114.63</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F65">
         <v>109.19</v>
       </c>
       <c r="G65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I65">
         <v>119.48</v>
       </c>
       <c r="J65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K65">
         <v>113.14</v>
@@ -5768,16 +5770,16 @@
         <v>111.98</v>
       </c>
       <c r="M65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N65">
         <v>112.31</v>
       </c>
       <c r="O65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q65">
         <v>108.86</v>
@@ -5786,22 +5788,22 @@
         <v>116.8</v>
       </c>
       <c r="S65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T65">
         <v>113.47</v>
       </c>
       <c r="U65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W65">
         <v>109.19</v>
       </c>
       <c r="X65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y65">
         <v>110.99</v>
@@ -5822,9 +5824,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B66">
         <v>104.35</v>
@@ -5833,25 +5835,25 @@
         <v>114.46</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F66">
         <v>108.69</v>
       </c>
       <c r="G66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I66">
         <v>119.31</v>
       </c>
       <c r="J66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K66">
         <v>112.97</v>
@@ -5860,16 +5862,16 @@
         <v>112.14</v>
       </c>
       <c r="M66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N66">
         <v>112.31</v>
       </c>
       <c r="O66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q66">
         <v>108.69</v>
@@ -5878,22 +5880,22 @@
         <v>116.46</v>
       </c>
       <c r="S66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T66">
         <v>113.3</v>
       </c>
       <c r="U66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W66">
         <v>108.86</v>
       </c>
       <c r="X66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y66">
         <v>110.99</v>
@@ -5914,9 +5916,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B67">
         <v>106.35</v>
@@ -5925,25 +5927,25 @@
         <v>114.63</v>
       </c>
       <c r="D67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F67">
         <v>108.69</v>
       </c>
       <c r="G67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I67">
         <v>119.31</v>
       </c>
       <c r="J67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K67">
         <v>113.3</v>
@@ -5952,16 +5954,16 @@
         <v>112.14</v>
       </c>
       <c r="M67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N67">
         <v>112.47</v>
       </c>
       <c r="O67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q67">
         <v>108.53</v>
@@ -5970,22 +5972,22 @@
         <v>116.96</v>
       </c>
       <c r="S67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T67">
         <v>112.81</v>
       </c>
       <c r="U67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W67">
         <v>108.86</v>
       </c>
       <c r="X67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y67">
         <v>110.66</v>
@@ -6006,9 +6008,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B68">
         <v>108.35</v>
@@ -6017,25 +6019,25 @@
         <v>114.3</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F68">
         <v>108.69</v>
       </c>
       <c r="G68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I68">
         <v>119.31</v>
       </c>
       <c r="J68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K68">
         <v>113.63</v>
@@ -6044,16 +6046,16 @@
         <v>111.65</v>
       </c>
       <c r="M68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N68">
         <v>112.14</v>
       </c>
       <c r="O68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q68">
         <v>108.53</v>
@@ -6062,22 +6064,22 @@
         <v>116.46</v>
       </c>
       <c r="S68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T68">
         <v>112.97</v>
       </c>
       <c r="U68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W68">
         <v>108.69</v>
       </c>
       <c r="X68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y68">
         <v>110.5</v>
@@ -6098,9 +6100,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B69">
         <v>110.37</v>
@@ -6109,25 +6111,25 @@
         <v>114.46</v>
       </c>
       <c r="D69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F69">
         <v>108.69</v>
       </c>
       <c r="G69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I69">
         <v>118.98</v>
       </c>
       <c r="J69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K69">
         <v>112.97</v>
@@ -6136,16 +6138,16 @@
         <v>111.32</v>
       </c>
       <c r="M69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N69">
         <v>112.14</v>
       </c>
       <c r="O69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q69">
         <v>108.69</v>
@@ -6154,22 +6156,22 @@
         <v>116.63</v>
       </c>
       <c r="S69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T69">
         <v>112.97</v>
       </c>
       <c r="U69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W69">
         <v>108.69</v>
       </c>
       <c r="X69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y69">
         <v>110.66</v>
@@ -6190,9 +6192,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B70">
         <v>112.37</v>
@@ -6201,25 +6203,25 @@
         <v>114.3</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F70">
         <v>108.53</v>
       </c>
       <c r="G70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I70">
         <v>119.15</v>
       </c>
       <c r="J70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K70">
         <v>113.3</v>
@@ -6228,16 +6230,16 @@
         <v>110.99</v>
       </c>
       <c r="M70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N70">
         <v>111.65</v>
       </c>
       <c r="O70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q70">
         <v>108.2</v>
@@ -6246,22 +6248,22 @@
         <v>116.3</v>
       </c>
       <c r="S70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T70">
         <v>113.14</v>
       </c>
       <c r="U70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W70">
         <v>108.53</v>
       </c>
       <c r="X70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y70">
         <v>110.5</v>
@@ -6282,9 +6284,9 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B71">
         <v>114.37</v>
@@ -6293,25 +6295,25 @@
         <v>113.97</v>
       </c>
       <c r="D71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F71">
         <v>108.04</v>
       </c>
       <c r="G71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I71">
         <v>119.15</v>
       </c>
       <c r="J71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K71">
         <v>113.14</v>
@@ -6320,16 +6322,16 @@
         <v>111.16</v>
       </c>
       <c r="M71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N71">
         <v>111.81</v>
       </c>
       <c r="O71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q71">
         <v>108.2</v>
@@ -6338,22 +6340,22 @@
         <v>116.13</v>
       </c>
       <c r="S71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T71">
         <v>112.81</v>
       </c>
       <c r="U71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W71">
         <v>108.69</v>
       </c>
       <c r="X71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y71">
         <v>110.33</v>
@@ -6374,9 +6376,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B72">
         <v>116.37</v>
@@ -6385,25 +6387,25 @@
         <v>114.3</v>
       </c>
       <c r="D72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F72">
         <v>108.2</v>
       </c>
       <c r="G72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I72">
         <v>118.98</v>
       </c>
       <c r="J72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K72">
         <v>113.14</v>
@@ -6412,16 +6414,16 @@
         <v>111.32</v>
       </c>
       <c r="M72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N72">
         <v>112.14</v>
       </c>
       <c r="O72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q72">
         <v>108.37</v>
@@ -6430,22 +6432,22 @@
         <v>116.13</v>
       </c>
       <c r="S72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T72">
         <v>112.97</v>
       </c>
       <c r="U72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W72">
         <v>108.37</v>
       </c>
       <c r="X72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y72">
         <v>110.5</v>
@@ -6466,9 +6468,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73">
         <v>118.37</v>
@@ -6477,25 +6479,25 @@
         <v>114.13</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F73">
         <v>108.2</v>
       </c>
       <c r="G73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I73">
         <v>118.98</v>
       </c>
       <c r="J73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K73">
         <v>112.97</v>
@@ -6504,16 +6506,16 @@
         <v>111.32</v>
       </c>
       <c r="M73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N73">
         <v>112.31</v>
       </c>
       <c r="O73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q73">
         <v>108.37</v>
@@ -6522,22 +6524,22 @@
         <v>116.46</v>
       </c>
       <c r="S73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T73">
         <v>112.64</v>
       </c>
       <c r="U73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W73">
         <v>108.53</v>
       </c>
       <c r="X73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y73">
         <v>110</v>
@@ -6558,9 +6560,9 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74">
         <v>120.38</v>
@@ -6569,25 +6571,25 @@
         <v>113.97</v>
       </c>
       <c r="D74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F74">
         <v>108.04</v>
       </c>
       <c r="G74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I74">
         <v>118.98</v>
       </c>
       <c r="J74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K74">
         <v>112.97</v>
@@ -6596,16 +6598,16 @@
         <v>111.48</v>
       </c>
       <c r="M74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N74">
         <v>111.98</v>
       </c>
       <c r="O74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q74">
         <v>108.04</v>
@@ -6614,22 +6616,22 @@
         <v>116.3</v>
       </c>
       <c r="S74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T74">
         <v>112.81</v>
       </c>
       <c r="U74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W74">
         <v>108.37</v>
       </c>
       <c r="X74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y74">
         <v>109.19</v>
@@ -6650,9 +6652,9 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B75">
         <v>122.38</v>
@@ -6661,25 +6663,25 @@
         <v>113.8</v>
       </c>
       <c r="D75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F75">
         <v>107.71</v>
       </c>
       <c r="G75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I75">
         <v>118.98</v>
       </c>
       <c r="J75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K75">
         <v>112.64</v>
@@ -6688,16 +6690,16 @@
         <v>111.16</v>
       </c>
       <c r="M75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N75">
         <v>111.65</v>
       </c>
       <c r="O75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q75">
         <v>107.88</v>
@@ -6706,22 +6708,22 @@
         <v>115.8</v>
       </c>
       <c r="S75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T75">
         <v>112.31</v>
       </c>
       <c r="U75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W75">
         <v>108.04</v>
       </c>
       <c r="X75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y75">
         <v>109.51</v>
@@ -6742,9 +6744,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B76">
         <v>124.38</v>
@@ -6753,25 +6755,25 @@
         <v>113.8</v>
       </c>
       <c r="D76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F76">
         <v>107.71</v>
       </c>
       <c r="G76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I76">
         <v>119.15</v>
       </c>
       <c r="J76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K76">
         <v>112.97</v>
@@ -6780,16 +6782,16 @@
         <v>111.16</v>
       </c>
       <c r="M76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N76">
         <v>111.65</v>
       </c>
       <c r="O76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q76">
         <v>107.55</v>
@@ -6798,22 +6800,22 @@
         <v>115.8</v>
       </c>
       <c r="S76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T76">
         <v>112.81</v>
       </c>
       <c r="U76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W76">
         <v>107.88</v>
       </c>
       <c r="X76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y76">
         <v>109.51</v>
@@ -6834,9 +6836,9 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B77">
         <v>126.38</v>
@@ -6845,25 +6847,25 @@
         <v>113.8</v>
       </c>
       <c r="D77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F77">
         <v>107.55</v>
       </c>
       <c r="G77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I77">
         <v>119.15</v>
       </c>
       <c r="J77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K77">
         <v>112.81</v>
@@ -6872,16 +6874,16 @@
         <v>110.99</v>
       </c>
       <c r="M77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N77">
         <v>111.65</v>
       </c>
       <c r="O77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q77">
         <v>107.88</v>
@@ -6890,22 +6892,22 @@
         <v>115.8</v>
       </c>
       <c r="S77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T77">
         <v>112.47</v>
       </c>
       <c r="U77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W77">
         <v>108.04</v>
       </c>
       <c r="X77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y77">
         <v>109.68</v>
@@ -6926,9 +6928,9 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B78">
         <v>128.38</v>
@@ -6937,25 +6939,25 @@
         <v>113.63</v>
       </c>
       <c r="D78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F78">
         <v>107.55</v>
       </c>
       <c r="G78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I78">
         <v>118.64</v>
       </c>
       <c r="J78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K78">
         <v>112.97</v>
@@ -6964,16 +6966,16 @@
         <v>110.66</v>
       </c>
       <c r="M78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N78">
         <v>111.16</v>
       </c>
       <c r="O78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q78">
         <v>107.39</v>
@@ -6982,22 +6984,22 @@
         <v>115.8</v>
       </c>
       <c r="S78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T78">
         <v>112.64</v>
       </c>
       <c r="U78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W78">
         <v>107.55</v>
       </c>
       <c r="X78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y78">
         <v>109.19</v>
@@ -7018,9 +7020,9 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B79">
         <v>130.38</v>
@@ -7029,25 +7031,25 @@
         <v>113.3</v>
       </c>
       <c r="D79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F79">
         <v>107.71</v>
       </c>
       <c r="G79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I79">
         <v>118.98</v>
       </c>
       <c r="J79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K79">
         <v>112.47</v>
@@ -7056,16 +7058,16 @@
         <v>110.66</v>
       </c>
       <c r="M79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N79">
         <v>111.32</v>
       </c>
       <c r="O79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q79">
         <v>107.88</v>
@@ -7074,22 +7076,22 @@
         <v>115.8</v>
       </c>
       <c r="S79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T79">
         <v>112.31</v>
       </c>
       <c r="U79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W79">
         <v>107.71</v>
       </c>
       <c r="X79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y79">
         <v>109.35</v>
@@ -7110,9 +7112,9 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B80">
         <v>132.38</v>
@@ -7121,25 +7123,25 @@
         <v>113.47</v>
       </c>
       <c r="D80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F80">
         <v>107.23</v>
       </c>
       <c r="G80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I80">
         <v>118.98</v>
       </c>
       <c r="J80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K80">
         <v>112.64</v>
@@ -7148,16 +7150,16 @@
         <v>110.33</v>
       </c>
       <c r="M80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N80">
         <v>111.16</v>
       </c>
       <c r="O80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q80">
         <v>107.39</v>
@@ -7166,22 +7168,22 @@
         <v>115.63</v>
       </c>
       <c r="S80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T80">
         <v>112.31</v>
       </c>
       <c r="U80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W80">
         <v>107.39</v>
       </c>
       <c r="X80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y80">
         <v>109.35</v>
@@ -7202,9 +7204,9 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B81">
         <v>134.4</v>
@@ -7213,25 +7215,25 @@
         <v>113.63</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F81">
         <v>107.23</v>
       </c>
       <c r="G81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I81">
         <v>118.98</v>
       </c>
       <c r="J81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K81">
         <v>112.47</v>
@@ -7240,16 +7242,16 @@
         <v>110.5</v>
       </c>
       <c r="M81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N81">
         <v>111.32</v>
       </c>
       <c r="O81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q81">
         <v>107.39</v>
@@ -7258,22 +7260,22 @@
         <v>115.46</v>
       </c>
       <c r="S81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T81">
         <v>111.98</v>
       </c>
       <c r="U81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W81">
         <v>107.39</v>
       </c>
       <c r="X81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y81">
         <v>108.86</v>
@@ -7294,9 +7296,9 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B82">
         <v>136.41999999999999</v>
@@ -7305,25 +7307,25 @@
         <v>113.47</v>
       </c>
       <c r="D82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F82">
         <v>107.06</v>
       </c>
       <c r="G82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I82">
         <v>119.15</v>
       </c>
       <c r="J82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K82">
         <v>112.81</v>
@@ -7332,16 +7334,16 @@
         <v>110.66</v>
       </c>
       <c r="M82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N82">
         <v>111.48</v>
       </c>
       <c r="O82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q82">
         <v>107.55</v>
@@ -7350,22 +7352,22 @@
         <v>115.96</v>
       </c>
       <c r="S82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T82">
         <v>112.14</v>
       </c>
       <c r="U82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W82">
         <v>107.71</v>
       </c>
       <c r="X82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y82">
         <v>108.86</v>
@@ -7386,9 +7388,9 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B83">
         <v>138.41999999999999</v>
@@ -7397,25 +7399,25 @@
         <v>113.47</v>
       </c>
       <c r="D83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F83">
         <v>107.06</v>
       </c>
       <c r="G83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I83">
         <v>118.81</v>
       </c>
       <c r="J83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K83">
         <v>112.81</v>
@@ -7424,16 +7426,16 @@
         <v>110.66</v>
       </c>
       <c r="M83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N83">
         <v>111.32</v>
       </c>
       <c r="O83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q83">
         <v>107.23</v>
@@ -7442,22 +7444,22 @@
         <v>115.8</v>
       </c>
       <c r="S83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T83">
         <v>112.31</v>
       </c>
       <c r="U83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W83">
         <v>107.06</v>
       </c>
       <c r="X83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y83">
         <v>108.86</v>
@@ -7478,9 +7480,9 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B84">
         <v>140.43</v>
@@ -7489,25 +7491,25 @@
         <v>113.14</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F84">
         <v>106.9</v>
       </c>
       <c r="G84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I84">
         <v>118.98</v>
       </c>
       <c r="J84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K84">
         <v>112.64</v>
@@ -7516,16 +7518,16 @@
         <v>110.33</v>
       </c>
       <c r="M84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N84">
         <v>110.99</v>
       </c>
       <c r="O84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q84">
         <v>107.06</v>
@@ -7534,22 +7536,22 @@
         <v>115.63</v>
       </c>
       <c r="S84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T84">
         <v>111.98</v>
       </c>
       <c r="U84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W84">
         <v>106.9</v>
       </c>
       <c r="X84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y84">
         <v>108.69</v>
@@ -7570,9 +7572,9 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B85">
         <v>142.44999999999999</v>
@@ -7581,25 +7583,25 @@
         <v>113.14</v>
       </c>
       <c r="D85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F85">
         <v>107.06</v>
       </c>
       <c r="G85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I85">
         <v>118.98</v>
       </c>
       <c r="J85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K85">
         <v>112.81</v>
@@ -7608,16 +7610,16 @@
         <v>110.33</v>
       </c>
       <c r="M85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N85">
         <v>111.32</v>
       </c>
       <c r="O85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q85">
         <v>107.06</v>
@@ -7626,22 +7628,22 @@
         <v>115.3</v>
       </c>
       <c r="S85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T85">
         <v>111.98</v>
       </c>
       <c r="U85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W85">
         <v>106.74</v>
       </c>
       <c r="X85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y85">
         <v>107.88</v>
@@ -7673,7 +7675,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
